--- a/myapp/daftar_biaya_publikasi.xlsx
+++ b/myapp/daftar_biaya_publikasi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT APLIKASI SHINY IDX 2026\ARTIKEL IDX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT APLIKASI SHINY IDX 2026\SHINY FOR IDX\myapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB031836-63C4-4289-AACC-4C49C11084B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C8B5C9-71E8-42AC-9A35-F714FAA64928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="103">
   <si>
     <t>Journal</t>
   </si>
@@ -339,15 +339,86 @@
   <si>
     <t>USD 250 (International authors); Rp 4,000,000 (Indonesia authors) Authors must secure funds for the APC before submitting their articles, not after acceptance; Article Submission Charges (ASC); Ilomata International Journal of Tax and Accounting does not charge for article submissions.</t>
   </si>
+  <si>
+    <t>Article Processing Charges; To support this open access journal, we have an honorary charge for publication of an accepted manuscript USD 175 or IDR 2.500.000; link: https://dinastipub.org/DIJEFA/Article-Processing-Charges</t>
+  </si>
+  <si>
+    <t>Dinasti International Journal of Economics, Finance &amp; Accounting</t>
+  </si>
+  <si>
+    <t>2721303X</t>
+  </si>
+  <si>
+    <t>https://sinta.kemdiktisaintek.go.id/journals/profile/11472</t>
+  </si>
+  <si>
+    <t>Article Processing Charge; JAS is an open access international journal. Since manuscript submission for Volume 9 number 1 January 2025, author(s) pay some processing fees IDR 850.000. The  APC should be paid in 3 days max after the acceptance of manuscript. Link: https://jas.umsida.ac.id/index.php/jas/authorfees</t>
+  </si>
+  <si>
+    <t>Journal of Accounting Science</t>
+  </si>
+  <si>
+    <t>https://jas.umsida.ac.id/index.php/jas/article/view/2047</t>
+  </si>
+  <si>
+    <t>We previously charged an APC of IDR 750,000 (for Indonesian authors) and USD 50 (for foreign authors) per article published in our journal. Starting February 20, 2025, the APC will be slightly increased to IDR 1,000,000 for Indonesian authors) and USD 65 (for foreign authors). Link: https://journal.uii.ac.id/JCA/APC</t>
+  </si>
+  <si>
+    <t>Journal of Contemporary Accounting</t>
+  </si>
+  <si>
+    <t>https://sinta.kemdiktisaintek.go.id/journals/profile/8862</t>
+  </si>
+  <si>
+    <t>Author Fee; This journal charges the following author fees. Article Publication Charge: 750000.00 (IDR); Fast Track: 1000000.00 (IDR). Link: https://tajb.unbin.ac.id/index.php/ajb/AuthorFee</t>
+  </si>
+  <si>
+    <t>The Accounting Journal of Binaniaga</t>
+  </si>
+  <si>
+    <t>Sinta 4</t>
+  </si>
+  <si>
+    <t>https://sinta.kemdiktisaintek.go.id/journals/profile/3966</t>
+  </si>
+  <si>
+    <t>Article Processing Charges; This journal charges the following author fees. Article Submission: 0.00 (IDR); Article Publication: 500.000 (IDR); Link: https://journal.uib.ac.id/index.php/gfa/fee</t>
+  </si>
+  <si>
+    <t>Global Financial Accounting Journal</t>
+  </si>
+  <si>
+    <t>2655836X</t>
+  </si>
+  <si>
+    <t>https://sinta.kemdiktisaintek.go.id/journals/profile/7827</t>
+  </si>
+  <si>
+    <t>ARTICLE SUBMISSION: 0.00 (IDR); Authors ARE NOT REQUIRED to pay for an article Submission and Processing Charge but only for the accepted manuscript will be asked to pay the Article Publication fee. ARTICLE PUBLICATION:  IDR 400.000.00. Link: https://jurnal.masoemuniversity.ac.id/index.php/aims/authorfees</t>
+  </si>
+  <si>
+    <t>Jurnal Accounting Information System</t>
+  </si>
+  <si>
+    <t>https://sinta.kemdiktisaintek.go.id/journals/profile/6462</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -370,51 +441,59 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -430,17 +509,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB8A84B2-377C-4615-871E-69B3E88067B5}" name="Table3" displayName="Table3" ref="A1:H16" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:H16" xr:uid="{CB8A84B2-377C-4615-871E-69B3E88067B5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB8A84B2-377C-4615-871E-69B3E88067B5}" name="Table3" displayName="Table3" ref="A1:H23" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H23" xr:uid="{CB8A84B2-377C-4615-871E-69B3E88067B5}"/>
   <tableColumns count="8">
-    <tableColumn id="7" xr3:uid="{07A6AE9A-8C1B-4027-A9F3-E11D80689944}" name="Journal" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{F4BDABE2-2BBA-4022-B52E-8670ABFA9139}" name="ISSN" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{43ED4022-B2C7-4A8B-A250-EEED5173B6C7}" name="Indexed by Sinta" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{C6D79BA5-F3B9-4CB8-A017-45FA56FEFB3B}" name="Link Sinta" dataDxfId="6"/>
-    <tableColumn id="17" xr3:uid="{DC957420-5ABC-4395-AF2B-D2427ABF7519}" name="Scimago" dataDxfId="5"/>
-    <tableColumn id="18" xr3:uid="{43720919-0C05-4974-8841-375807A19F9C}" name="Scopus" dataDxfId="4"/>
-    <tableColumn id="1" xr3:uid="{0A52FF80-D083-4873-8DA1-AD93B215AE7B}" name="Article Processing Charge (APC)" dataDxfId="3"/>
-    <tableColumn id="21" xr3:uid="{E8F94995-3A4F-49A3-8750-93CCD6A7CB83}" name="Journal Information" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{07A6AE9A-8C1B-4027-A9F3-E11D80689944}" name="Journal" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{F4BDABE2-2BBA-4022-B52E-8670ABFA9139}" name="ISSN" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{43ED4022-B2C7-4A8B-A250-EEED5173B6C7}" name="Indexed by Sinta" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{C6D79BA5-F3B9-4CB8-A017-45FA56FEFB3B}" name="Link Sinta" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{DC957420-5ABC-4395-AF2B-D2427ABF7519}" name="Scimago" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{43720919-0C05-4974-8841-375807A19F9C}" name="Scopus" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{0A52FF80-D083-4873-8DA1-AD93B215AE7B}" name="Article Processing Charge (APC)" dataDxfId="1"/>
+    <tableColumn id="21" xr3:uid="{E8F94995-3A4F-49A3-8750-93CCD6A7CB83}" name="Journal Information" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -709,20 +788,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301F25F7-0A6B-4070-8C78-2EF3EEB3D269}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52" style="1" customWidth="1"/>
-    <col min="2" max="6" width="11.42578125" style="1"/>
-    <col min="7" max="7" width="63.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="142.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="101.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="58.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="110.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="127.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="50.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="255.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="247.5703125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -748,7 +833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -762,7 +847,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -782,7 +867,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -799,7 +884,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -819,7 +904,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -839,7 +924,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="405" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -859,7 +944,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="255" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -876,7 +961,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="330" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -896,7 +981,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="285" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>41</v>
       </c>
@@ -916,7 +1001,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="285" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
@@ -936,7 +1021,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="390" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
@@ -956,7 +1041,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
@@ -976,7 +1061,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="255" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>58</v>
       </c>
@@ -996,7 +1081,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="360" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>62</v>
       </c>
@@ -1013,7 +1098,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="285" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>66</v>
       </c>
@@ -1033,10 +1118,138 @@
         <v>69</v>
       </c>
     </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="4">
+        <v>25483501</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="4">
+        <v>26571935</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="4">
+        <v>25801481</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="4">
+        <v>26217279</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D17" r:id="rId1" xr:uid="{C6624A80-449E-492D-AF21-A977B5AF3B9B}"/>
+    <hyperlink ref="D18" r:id="rId2" xr:uid="{4A966C33-8773-4E7F-BF62-21A75E028CEE}"/>
+    <hyperlink ref="D19" r:id="rId3" xr:uid="{FD65860D-5134-486F-BE48-2CE82D2CD9AF}"/>
+    <hyperlink ref="D20" r:id="rId4" xr:uid="{A7040EDF-C3B6-403C-86CE-D84AAD289590}"/>
+    <hyperlink ref="D21" r:id="rId5" xr:uid="{D86F1FE4-AA66-45AC-BC35-1D32515CB87D}"/>
+    <hyperlink ref="D22" r:id="rId6" xr:uid="{886A88A2-06D1-460C-B8CF-6A9CD93B41DE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/myapp/daftar_biaya_publikasi.xlsx
+++ b/myapp/daftar_biaya_publikasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT APLIKASI SHINY IDX 2026\SHINY FOR IDX\myapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C8B5C9-71E8-42AC-9A35-F714FAA64928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4522952E-B1AC-4F5C-B576-8899F2CD21DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="117">
   <si>
     <t>Journal</t>
   </si>
@@ -401,6 +401,48 @@
   </si>
   <si>
     <t>https://sinta.kemdiktisaintek.go.id/journals/profile/6462</t>
+  </si>
+  <si>
+    <t>Sharia Finance and Accounting Journal</t>
+  </si>
+  <si>
+    <t>https://sinta.kemdiktisaintek.go.id/journals/profile/11336</t>
+  </si>
+  <si>
+    <t>Article Submission: 0.00 (IDR); Article Publication: 400.000 (IDR); Link: https://ejournal.iainmadura.ac.id/index.php/shafin/publicationfees</t>
+  </si>
+  <si>
+    <t>Journal of Islamic Finance and Accounting</t>
+  </si>
+  <si>
+    <t>https://sinta.kemdiktisaintek.go.id/journals/profile/6817</t>
+  </si>
+  <si>
+    <t>IFA (Journal of Islamic Finance and Accounting)  DOES NOT charge authors submission and publication fees. The journal is owned by the Department of Sharia Accounting Faculty of Islamic Economics and Business UIN Raden Mas Said Surakarta that supports the operation and publication process. Link: https://ejournal.uinsaid.ac.id/index.php/jifa/Publication/Fee</t>
+  </si>
+  <si>
+    <t>Journal of Accounting, Business and Management</t>
+  </si>
+  <si>
+    <t>https://sinta.kemdiktisaintek.go.id/journals/profile/4384</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL JOURNAL OF CONTEMPORARY ACCOUNTING</t>
+  </si>
+  <si>
+    <t>https://sinta.kemdiktisaintek.go.id/journals/profile/8310</t>
+  </si>
+  <si>
+    <t>2. Article Processing Charge (APC); International Journal of Contemporary Accounting has an open access policy, for which the author must be responsible for paying the article processing charge (APC), which covers the fees for peer review management, journal productions, online hosting, and long-term archiving. APC will charge after the article status: ACCEPTED, but it does not affect the peer review process. APC in the journal are: National author: Rp. 1.000,000,- International author: USD 0. Link: https://e-journal.trisakti.ac.id/index.php/ijca/JournalBusinessModel</t>
+  </si>
+  <si>
+    <t>Economics, Business, Accounting &amp; Society Review</t>
+  </si>
+  <si>
+    <t>https://sinta.kemdiktisaintek.go.id/journals/profile/15070</t>
+  </si>
+  <si>
+    <t>*No hard copy is included in the publication charge. All authors from Indonesia IDR 1.500.000; All authors from Abroad; IDR 0 (FREE); Collaborative authors (Indonesia + Abroad); IDR 0 (FREE); Fast Track review service; If you do not have funds to pay such fees, you will have an opportunity to waive each fee. We do not want fees to prevent the publication of worthy work. Link: https://ecsis.org/index.php/ebasr/Fee_Submission</t>
   </si>
 </sst>
 </file>
@@ -509,8 +551,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB8A84B2-377C-4615-871E-69B3E88067B5}" name="Table3" displayName="Table3" ref="A1:H23" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H23" xr:uid="{CB8A84B2-377C-4615-871E-69B3E88067B5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB8A84B2-377C-4615-871E-69B3E88067B5}" name="Table3" displayName="Table3" ref="A1:H28" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H28" xr:uid="{CB8A84B2-377C-4615-871E-69B3E88067B5}"/>
   <tableColumns count="8">
     <tableColumn id="7" xr3:uid="{07A6AE9A-8C1B-4027-A9F3-E11D80689944}" name="Journal" dataDxfId="7"/>
     <tableColumn id="8" xr3:uid="{F4BDABE2-2BBA-4022-B52E-8670ABFA9139}" name="ISSN" dataDxfId="6"/>
@@ -788,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301F25F7-0A6B-4070-8C78-2EF3EEB3D269}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1238,6 +1280,100 @@
         <v>100</v>
       </c>
     </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="4">
+        <v>27973484</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="4">
+        <v>26151782</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="4">
+        <v>26222167</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="4">
+        <v>26858568</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="4">
+        <v>28100115</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D17" r:id="rId1" xr:uid="{C6624A80-449E-492D-AF21-A977B5AF3B9B}"/>
@@ -1246,10 +1382,15 @@
     <hyperlink ref="D20" r:id="rId4" xr:uid="{A7040EDF-C3B6-403C-86CE-D84AAD289590}"/>
     <hyperlink ref="D21" r:id="rId5" xr:uid="{D86F1FE4-AA66-45AC-BC35-1D32515CB87D}"/>
     <hyperlink ref="D22" r:id="rId6" xr:uid="{886A88A2-06D1-460C-B8CF-6A9CD93B41DE}"/>
+    <hyperlink ref="D23" r:id="rId7" xr:uid="{F624BDF1-F1F0-4B92-BEE9-6913E82B050C}"/>
+    <hyperlink ref="D24" r:id="rId8" xr:uid="{3747D3D8-DF2D-41FF-8FC0-3F1F2CC40EBB}"/>
+    <hyperlink ref="D25" r:id="rId9" xr:uid="{5B30A6DE-1604-450B-9BD4-3DDF14138708}"/>
+    <hyperlink ref="D26" r:id="rId10" xr:uid="{5C5FEE98-AD7A-4CFC-914F-C5AEA8A380A1}"/>
+    <hyperlink ref="D27" r:id="rId11" xr:uid="{5245D0D9-ED64-4FCD-B19D-11F40CA8DE84}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>
--- a/myapp/daftar_biaya_publikasi.xlsx
+++ b/myapp/daftar_biaya_publikasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT APLIKASI SHINY IDX 2026\SHINY FOR IDX\myapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4522952E-B1AC-4F5C-B576-8899F2CD21DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB71B00-B2C2-47BB-A210-D136787F7D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="138">
   <si>
     <t>Journal</t>
   </si>
@@ -443,6 +443,69 @@
   </si>
   <si>
     <t>*No hard copy is included in the publication charge. All authors from Indonesia IDR 1.500.000; All authors from Abroad; IDR 0 (FREE); Collaborative authors (Indonesia + Abroad); IDR 0 (FREE); Fast Track review service; If you do not have funds to pay such fees, you will have an opportunity to waive each fee. We do not want fees to prevent the publication of worthy work. Link: https://ecsis.org/index.php/ebasr/Fee_Submission</t>
+  </si>
+  <si>
+    <t>Jurnal ULTIMA Accounting</t>
+  </si>
+  <si>
+    <t>https://sinta.kemdiktisaintek.go.id/journals/profile/4286</t>
+  </si>
+  <si>
+    <t>Author Fees; This journal charges the following author fees. Article Submission: 0.00 (IDR) Authors are not required to pay for Article Submission Fee. Article Publication: 0,00 (IDR) for Indonesian author(s) 0,00 (USD) for non-Indonesian author(s); Authors are not required to pay for Article Publication Fee</t>
+  </si>
+  <si>
+    <t>The Indonesian Journal of Management &amp; Accounting</t>
+  </si>
+  <si>
+    <t>https://sinta.kemdiktisaintek.go.id/journals/profile/10932</t>
+  </si>
+  <si>
+    <t>Every accepted manuscript, will be published in open-access journal system of STIE La Tansa Mashiro. Author who its manuscript is published, won't get fee from publisher. Unaccepted manuscript able to submitted to another relevant journal.</t>
+  </si>
+  <si>
+    <t>Journal of Applied Accounting and Taxation</t>
+  </si>
+  <si>
+    <t>https://sinta.kemdiktisaintek.go.id/journals/profile/3898</t>
+  </si>
+  <si>
+    <t>Article Processing Charges (APCs); Every article submitted to Journal of Applied Accounting and Taxation will not have any Article Processing Charges (APCs). This includes peer reviewing, editing, publishing, maintaining, archiving, and allow to the full text versions of the articles for free. Link: https://jurnal.polibatam.ac.id/index.php/JAAT/APCs</t>
+  </si>
+  <si>
+    <t>Journal of Applied Finance &amp; Accounting</t>
+  </si>
+  <si>
+    <t>https://sinta.kemdiktisaintek.go.id/journals/profile/11756</t>
+  </si>
+  <si>
+    <t>Article Processing Charge: The publication of accepted articles is completely free of Article Processing Charges (APC). Authors will not incur any fees at any stage of the submission, review, or publication process. This policy reflects our commitment to promoting the open dissemination of scholarly work, ensuring equal opportunities for researchers worldwide without financial barriers, while maintaining a rigorous peer-review process to uphold academic excellence. Link: https://journal.binus.ac.id/index.php/JAFA/about</t>
+  </si>
+  <si>
+    <t>Klabat Accounting Review</t>
+  </si>
+  <si>
+    <t>https://sinta.kemdiktisaintek.go.id/journals/profile/12875</t>
+  </si>
+  <si>
+    <t>Article Processing Charges. Klabat Accounting Review (KAR) is an open-access journal that does not charge any fees at any stage of the publication process. free of Charge Policy. No Submission Fees: Authors can submit manuscripts without any payment or submission charge. No Article Processing Charges (APC): There are no costs for article review, editing, or publication. No Access Fees: All published articles are freely available to readers worldwide without subscription or download fees. Link: https://ejournal.unklab.ac.id/index.php/kar/ArticleProcessingCharges</t>
+  </si>
+  <si>
+    <t>Journal of Accounting and Finance Management</t>
+  </si>
+  <si>
+    <t>https://sinta.kemdiktisaintek.go.id/journals/profile/12026</t>
+  </si>
+  <si>
+    <t>Article Processing Charges; To support this open access journal, we have an honorary charge for publication of an accepted manuscript: USD 175 or IDR 2.500.000. Link  https://dinastires.org/jafm/article-processing</t>
+  </si>
+  <si>
+    <t>Amkop Management Accounting Review</t>
+  </si>
+  <si>
+    <t>https://sinta.kemdiktisaintek.go.id/journals/profile/13933</t>
+  </si>
+  <si>
+    <t>Author Fees; Article Submission: 0.00 (IDR) Authors are not required to pay an article submission fee. Article Publication: a. FREE OF CHARGE will be available for paper submission of authors outside the country of Indonesia; b. Indonesian Author(s) in collaboration with Author(s) from other country: IDR 1,000,000; c. All Indonesian Authors: IDR 1,500,000. Link: https://ojs.stieamkop.ac.id/index.php/amar/AuthorFees</t>
   </si>
 </sst>
 </file>
@@ -551,8 +614,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB8A84B2-377C-4615-871E-69B3E88067B5}" name="Table3" displayName="Table3" ref="A1:H28" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H28" xr:uid="{CB8A84B2-377C-4615-871E-69B3E88067B5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB8A84B2-377C-4615-871E-69B3E88067B5}" name="Table3" displayName="Table3" ref="A1:H35" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H35" xr:uid="{CB8A84B2-377C-4615-871E-69B3E88067B5}"/>
   <tableColumns count="8">
     <tableColumn id="7" xr3:uid="{07A6AE9A-8C1B-4027-A9F3-E11D80689944}" name="Journal" dataDxfId="7"/>
     <tableColumn id="8" xr3:uid="{F4BDABE2-2BBA-4022-B52E-8670ABFA9139}" name="ISSN" dataDxfId="6"/>
@@ -830,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301F25F7-0A6B-4070-8C78-2EF3EEB3D269}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1374,6 +1437,146 @@
         <v>116</v>
       </c>
     </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="4">
+        <v>25415476</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="4">
+        <v>28072804</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" s="4">
+        <v>25489925</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="4">
+        <v>27466019</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="4">
+        <v>27227278</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="4">
+        <v>27213013</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="4">
+        <v>28282248</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D17" r:id="rId1" xr:uid="{C6624A80-449E-492D-AF21-A977B5AF3B9B}"/>
@@ -1387,10 +1590,17 @@
     <hyperlink ref="D25" r:id="rId9" xr:uid="{5B30A6DE-1604-450B-9BD4-3DDF14138708}"/>
     <hyperlink ref="D26" r:id="rId10" xr:uid="{5C5FEE98-AD7A-4CFC-914F-C5AEA8A380A1}"/>
     <hyperlink ref="D27" r:id="rId11" xr:uid="{5245D0D9-ED64-4FCD-B19D-11F40CA8DE84}"/>
+    <hyperlink ref="D28" r:id="rId12" xr:uid="{7D41788F-602C-491E-9694-891D5C6D92F9}"/>
+    <hyperlink ref="D29" r:id="rId13" xr:uid="{D4E33681-F95B-48A8-9A0E-365A0D5195AA}"/>
+    <hyperlink ref="D30" r:id="rId14" xr:uid="{1084B90A-46E0-41B0-AFAC-02DD573346C1}"/>
+    <hyperlink ref="D31" r:id="rId15" xr:uid="{D43E90FA-2257-4D6E-A2BE-F6D21D44BF2A}"/>
+    <hyperlink ref="D32" r:id="rId16" xr:uid="{74B40B33-156C-45A8-B559-B3770467250A}"/>
+    <hyperlink ref="D33" r:id="rId17" xr:uid="{6D13A53C-2CEB-4CFC-BE47-9ABD44119AD7}"/>
+    <hyperlink ref="D34" r:id="rId18" xr:uid="{745C7418-FF06-4AAF-8525-95A0E6369FD2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId19"/>
   </tableParts>
 </worksheet>
 </file>